--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -534,52 +534,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H2">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I2">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J2">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>7910.853364089829</v>
+        <v>18136.37825183439</v>
       </c>
       <c r="R2">
-        <v>7910.853364089829</v>
+        <v>163227.4042665095</v>
       </c>
       <c r="S2">
-        <v>0.1259140138106315</v>
+        <v>0.1962256014480858</v>
       </c>
       <c r="T2">
-        <v>0.1259140138106315</v>
+        <v>0.1962256014480859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H3">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I3">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J3">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>4518.109059988228</v>
+        <v>8566.74142185754</v>
       </c>
       <c r="R3">
-        <v>4518.109059988228</v>
+        <v>77100.67279671787</v>
       </c>
       <c r="S3">
-        <v>0.0719130061441545</v>
+        <v>0.09268741336403265</v>
       </c>
       <c r="T3">
-        <v>0.0719130061441545</v>
+        <v>0.09268741336403268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H4">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I4">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J4">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>4739.508924836774</v>
+        <v>8414.600215439381</v>
       </c>
       <c r="R4">
-        <v>4739.508924836774</v>
+        <v>75731.40193895443</v>
       </c>
       <c r="S4">
-        <v>0.07543694273571831</v>
+        <v>0.09104132949216473</v>
       </c>
       <c r="T4">
-        <v>0.07543694273571831</v>
+        <v>0.09104132949216474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H5">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I5">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J5">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>2214.862397823191</v>
+        <v>4004.359479670391</v>
       </c>
       <c r="R5">
-        <v>2214.862397823191</v>
+        <v>36039.23531703351</v>
       </c>
       <c r="S5">
-        <v>0.03525311388201216</v>
+        <v>0.04332495917332291</v>
       </c>
       <c r="T5">
-        <v>0.03525311388201216</v>
+        <v>0.04332495917332291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H6">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I6">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J6">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>139.184802372435</v>
+        <v>349.96957341262</v>
       </c>
       <c r="R6">
-        <v>139.184802372435</v>
+        <v>3149.72616071358</v>
       </c>
       <c r="S6">
-        <v>0.002215351027451278</v>
+        <v>0.003786477601969705</v>
       </c>
       <c r="T6">
-        <v>0.002215351027451278</v>
+        <v>0.003786477601969706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.795702666781</v>
+        <v>171.783722</v>
       </c>
       <c r="H7">
-        <v>159.795702666781</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I7">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J7">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>15767.7850297196</v>
+        <v>21985.58007309226</v>
       </c>
       <c r="R7">
-        <v>15767.7850297196</v>
+        <v>197870.2206578303</v>
       </c>
       <c r="S7">
-        <v>0.2509697766624711</v>
+        <v>0.237871840404036</v>
       </c>
       <c r="T7">
-        <v>0.2509697766624711</v>
+        <v>0.2378718404040361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.795702666781</v>
+        <v>171.783722</v>
       </c>
       <c r="H8">
-        <v>159.795702666781</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I8">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J8">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>9005.421933632231</v>
+        <v>10384.9168163812</v>
       </c>
       <c r="R8">
-        <v>9005.421933632231</v>
+        <v>93464.25134743078</v>
       </c>
       <c r="S8">
-        <v>0.1433358412215233</v>
+        <v>0.1123590675043751</v>
       </c>
       <c r="T8">
-        <v>0.1433358412215233</v>
+        <v>0.1123590675043752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.795702666781</v>
+        <v>171.783722</v>
       </c>
       <c r="H9">
-        <v>159.795702666781</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I9">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J9">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>9446.712564853848</v>
+        <v>10200.48568963267</v>
       </c>
       <c r="R9">
-        <v>9446.712564853848</v>
+        <v>91804.37120669404</v>
       </c>
       <c r="S9">
-        <v>0.150359694663981</v>
+        <v>0.1103636245184903</v>
       </c>
       <c r="T9">
-        <v>0.150359694663981</v>
+        <v>0.1103636245184903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>159.795702666781</v>
+        <v>171.783722</v>
       </c>
       <c r="H10">
-        <v>159.795702666781</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I10">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J10">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>4414.627923431802</v>
+        <v>4854.230803927729</v>
       </c>
       <c r="R10">
-        <v>4414.627923431802</v>
+        <v>43688.07723534956</v>
       </c>
       <c r="S10">
-        <v>0.07026593664888965</v>
+        <v>0.05252009777487969</v>
       </c>
       <c r="T10">
-        <v>0.07026593664888965</v>
+        <v>0.0525200977748797</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.795702666781</v>
+        <v>171.783722</v>
       </c>
       <c r="H11">
-        <v>159.795702666781</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I11">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J11">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N11">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q11">
-        <v>277.420897873647</v>
+        <v>424.2458980822626</v>
       </c>
       <c r="R11">
-        <v>277.420897873647</v>
+        <v>3818.213082740363</v>
       </c>
       <c r="S11">
-        <v>0.004415601852106778</v>
+        <v>0.004590106434544354</v>
       </c>
       <c r="T11">
-        <v>0.004415601852106778</v>
+        <v>0.004590106434544355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.040021968849</v>
+        <v>18.32613333333333</v>
       </c>
       <c r="H12">
-        <v>18.040021968849</v>
+        <v>54.9784</v>
       </c>
       <c r="I12">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="J12">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N12">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q12">
-        <v>1780.092853494256</v>
+        <v>2345.4531496888</v>
       </c>
       <c r="R12">
-        <v>1780.092853494256</v>
+        <v>21109.0783471992</v>
       </c>
       <c r="S12">
-        <v>0.02833305407435905</v>
+        <v>0.02537650839518864</v>
       </c>
       <c r="T12">
-        <v>0.02833305407435905</v>
+        <v>0.02537650839518864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.040021968849</v>
+        <v>18.32613333333333</v>
       </c>
       <c r="H13">
-        <v>18.040021968849</v>
+        <v>54.9784</v>
       </c>
       <c r="I13">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="J13">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N13">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q13">
-        <v>1016.660691184235</v>
+        <v>1107.877789681245</v>
       </c>
       <c r="R13">
-        <v>1016.660691184235</v>
+        <v>9970.900107131201</v>
       </c>
       <c r="S13">
-        <v>0.01618179764165382</v>
+        <v>0.01198662613850095</v>
       </c>
       <c r="T13">
-        <v>0.01618179764165382</v>
+        <v>0.01198662613850095</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.040021968849</v>
+        <v>18.32613333333333</v>
       </c>
       <c r="H14">
-        <v>18.040021968849</v>
+        <v>54.9784</v>
       </c>
       <c r="I14">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="J14">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N14">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q14">
-        <v>1066.479882495568</v>
+        <v>1088.202413107378</v>
       </c>
       <c r="R14">
-        <v>1066.479882495568</v>
+        <v>9793.821717966401</v>
       </c>
       <c r="S14">
-        <v>0.01697475057025754</v>
+        <v>0.01177374942473181</v>
       </c>
       <c r="T14">
-        <v>0.01697475057025754</v>
+        <v>0.01177374942473181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.040021968849</v>
+        <v>18.32613333333333</v>
       </c>
       <c r="H15">
-        <v>18.040021968849</v>
+        <v>54.9784</v>
       </c>
       <c r="I15">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="J15">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N15">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q15">
-        <v>498.3862731845531</v>
+        <v>517.8562899199112</v>
       </c>
       <c r="R15">
-        <v>498.3862731845531</v>
+        <v>4660.7066092792</v>
       </c>
       <c r="S15">
-        <v>0.007932622840621829</v>
+        <v>0.005602919201518691</v>
       </c>
       <c r="T15">
-        <v>0.007932622840621829</v>
+        <v>0.005602919201518691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.040021968849</v>
+        <v>18.32613333333333</v>
       </c>
       <c r="H16">
-        <v>18.040021968849</v>
+        <v>54.9784</v>
       </c>
       <c r="I16">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="J16">
-        <v>0.06992072135106045</v>
+        <v>0.05522948228409861</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N16">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q16">
-        <v>31.31923455222429</v>
+        <v>45.25915962151111</v>
       </c>
       <c r="R16">
-        <v>31.31923455222429</v>
+        <v>407.3324365936</v>
       </c>
       <c r="S16">
-        <v>0.0004984962241682121</v>
+        <v>0.0004896791241585225</v>
       </c>
       <c r="T16">
-        <v>0.0004984962241682121</v>
+        <v>0.0004896791241585225</v>
       </c>
     </row>
   </sheetData>
